--- a/document/course.xlsx
+++ b/document/course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YJ\pnu\PNUSW-2024-team-10\SERVER\HackDemo\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5615779-27AF-49DB-8B16-204F1AF757A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B1EC0-E082-45B9-862F-EDB94EDC4128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3615" yWindow="25470" windowWidth="23040" windowHeight="13560" xr2:uid="{C7748C52-F204-41AA-8E83-9DFDD9B6CF42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="356">
   <si>
     <t>Course Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1244,13 +1244,51 @@
   </si>
   <si>
     <t xml:space="preserve">15:30 ~ 17:00 </t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/BIFF+%EA%B4%91%EC%9E%A5(%EC%A0%80%EC%9E%91%EB%AC%BC%EB%AA%85+%3D+%EB%82%A8%ED%8F%AC%EB%8F%99+%EC%95%BC%EA%B2%BD).jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/BIFF+%EA%B4%91%EC%9E%A5(%EC%A0%80%EC%9E%91%EB%AC%BC%EB%AA%85+%3D+%EB%82%A8%ED%8F%AC%EB%8F%99+%EC%95%BC%EA%B2%BD).jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EA%B0%90%EC%B2%9C%EB%AC%B8%ED%99%94%EB%A7%88%EC%9D%84.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%ED%9D%B0%EC%97%AC%EC%9A%B8%EB%AC%B8%ED%99%94%EB%A7%88%EC%9D%84.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EC%9E%90%EA%B0%88%EC%B9%98%EC%8B%9C%EC%9E%A5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EB%B6%80%EC%82%B0%EA%B7%BC%EB%8C%80%EC%97%AD%EC%82%AC%EA%B4%80.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EB%B3%B4%EC%88%98%EB%8F%99%EC%B1%85%EB%B0%A9%EA%B3%A8%EB%AA%A9.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EB%8D%94%EB%B2%A0%EC%9D%B4101.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%ED%95%B4%EC%9A%B4%EB%8C%80.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EC%98%81%ED%99%94%EC%9D%98%EC%A0%84%EB%8B%B9.JPG</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EA%B4%91%EC%95%88%EB%A6%AC%ED%95%B4%EC%88%98%EC%9A%95%EC%9E%A5.jpg</t>
+  </si>
+  <si>
+    <t>https://heron-image.s3.ap-northeast-2.amazonaws.com/%EB%A1%AF%EB%8D%B0%EC%9B%94%EB%93%9C+%EC%96%B4%EB%93%9C%EB%B2%A4%EC%B2%98+%EB%B6%80%EC%82%B0.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,6 +1329,24 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1309,12 +1365,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,9 +1404,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1679,1632 +1745,1760 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF2785-BAE5-4B17-A9CF-81EC149B0681}">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="198" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>76</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="198" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:37" ht="198" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:35" ht="198" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="198" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>110</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>138</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>139</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>150</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>154</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="198" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:37" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>156</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>163</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>57</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Y8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:35" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>175</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>180</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>184</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>186</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
         <v>190</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>194</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:35" ht="231" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="231" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
         <v>196</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>197</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>207</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>209</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>210</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>212</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>215</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="231" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="231" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
         <v>217</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>219</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>221</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>222</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>223</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Y12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:35" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
         <v>225</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>226</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>227</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>231</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>235</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>236</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>238</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Y13" s="3"/>
+      <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:35" ht="330" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="330" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
         <v>242</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="O14" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>253</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>254</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
+      <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:35" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
         <v>256</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>260</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>262</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>264</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>265</v>
       </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>266</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>38</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>268</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AH15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="198" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="198" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>269</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>271</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>272</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>273</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>274</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>275</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
         <v>277</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>278</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>280</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>281</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>282</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="8" t="s">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>283</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AA17" s="8" t="s">
+      <c r="AC17" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>285</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>286</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>288</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" t="s">
         <v>291</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>292</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>273</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Z18" t="s">
         <v>293</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AA18" s="8" t="s">
+      <c r="AC18" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>295</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>296</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AG18" t="s">
         <v>331</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>215</v>
       </c>
-      <c r="AG18" s="4" t="s">
+      <c r="AI18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AL18" t="s">
         <v>297</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AN18" t="s">
         <v>299</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AO18" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" t="s">
         <v>300</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>301</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>142</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>274</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>275</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>292</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>302</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>303</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>99</v>
       </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>305</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AE19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>306</v>
       </c>
-      <c r="AG19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AH19" s="3" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
         <v>307</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>308</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>253</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>254</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>309</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>155</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>310</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>311</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="AA20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{F8B23622-543A-4505-970B-EDDAEA28268D}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{F0964D07-7726-4EB2-AF2E-CD9F4D08465E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>